--- a/data/trans_orig/P45C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>481378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>461014</v>
+        <v>463085</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>498947</v>
+        <v>500694</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8240782187755052</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7892164525019141</v>
+        <v>0.7927617719535799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8541549082955155</v>
+        <v>0.8571463433723019</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>801</v>
@@ -765,19 +765,19 @@
         <v>837399</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>819917</v>
+        <v>818967</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>854184</v>
+        <v>854886</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9092155561581863</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8902343313268503</v>
+        <v>0.8892024709603228</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9274391426113371</v>
+        <v>0.9282019286551081</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1275</v>
@@ -786,19 +786,19 @@
         <v>1318777</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1292363</v>
+        <v>1290926</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1341306</v>
+        <v>1343757</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8761742688123551</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8586252300734606</v>
+        <v>0.8576704001084479</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8911421772926681</v>
+        <v>0.8927705018367609</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>86410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69353</v>
+        <v>68922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104286</v>
+        <v>104051</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1479274245702852</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1187258965954616</v>
+        <v>0.117988517617589</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1785295276501223</v>
+        <v>0.1781272447306871</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -836,19 +836,19 @@
         <v>71654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56146</v>
+        <v>56277</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87760</v>
+        <v>88786</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07779943973326296</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06096154582323961</v>
+        <v>0.06110317690910216</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09528691259560576</v>
+        <v>0.09640025994118361</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>156</v>
@@ -857,19 +857,19 @@
         <v>158065</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>136983</v>
+        <v>132876</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>181718</v>
+        <v>184196</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1050156878474012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09100953218525311</v>
+        <v>0.08828076214577765</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1207308076118623</v>
+        <v>0.1223767825382908</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>16353</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9773</v>
+        <v>9561</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27003</v>
+        <v>26469</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02799435665420958</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01673064824970897</v>
+        <v>0.01636810988329502</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04622636480865531</v>
+        <v>0.04531241236549846</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>11959</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6725</v>
+        <v>6045</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20878</v>
+        <v>20583</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01298500410855072</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007301296675782978</v>
+        <v>0.006563598817280183</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02266873224932824</v>
+        <v>0.02234802061549794</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -928,19 +928,19 @@
         <v>28312</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19217</v>
+        <v>19983</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40266</v>
+        <v>41802</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0188100433402437</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01276762726496107</v>
+        <v>0.01327666605428116</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02675212090496366</v>
+        <v>0.02777279232807384</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>911690</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>887053</v>
+        <v>888392</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>933827</v>
+        <v>933361</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.84649938759438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8236236539461043</v>
+        <v>0.8248671416989019</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8670533282973619</v>
+        <v>0.866620435443725</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>901</v>
@@ -1053,19 +1053,19 @@
         <v>929515</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>906884</v>
+        <v>907714</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>948373</v>
+        <v>948463</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8789427820244239</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8575425507336774</v>
+        <v>0.8583274610066552</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.896774768319932</v>
+        <v>0.8968593818385612</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1788</v>
@@ -1074,19 +1074,19 @@
         <v>1841205</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1808761</v>
+        <v>1811277</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1870759</v>
+        <v>1870495</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8625730897212105</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8473734127488053</v>
+        <v>0.8485523688588161</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8764183463366966</v>
+        <v>0.8762948970139264</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>151772</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>130361</v>
+        <v>131350</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>175141</v>
+        <v>174655</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1409198273707487</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.121039788522903</v>
+        <v>0.1219573867979453</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1626178997398968</v>
+        <v>0.1621666892371033</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>113</v>
@@ -1124,19 +1124,19 @@
         <v>112812</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>95983</v>
+        <v>94619</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>134535</v>
+        <v>134392</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1066745283463051</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09076126837352178</v>
+        <v>0.08947101583977331</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1272152040799144</v>
+        <v>0.1270803113976296</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>266</v>
@@ -1145,19 +1145,19 @@
         <v>264585</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>236227</v>
+        <v>236494</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>295027</v>
+        <v>295353</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.123953392586927</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1106682512292819</v>
+        <v>0.1107933118992564</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1382149227793531</v>
+        <v>0.1383679197185086</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>13550</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7268</v>
+        <v>7460</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22673</v>
+        <v>22998</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01258078503487132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006748675750662118</v>
+        <v>0.006926512982935926</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02105151702098553</v>
+        <v>0.02135334349284781</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1195,19 +1195,19 @@
         <v>15210</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8056</v>
+        <v>9224</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24790</v>
+        <v>25008</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01438268962927105</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007617675179468046</v>
+        <v>0.00872191772734808</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02344140131815274</v>
+        <v>0.02364710713750498</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1216,19 +1216,19 @@
         <v>28760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19423</v>
+        <v>19909</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40666</v>
+        <v>40169</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01347351769186258</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009099517088453662</v>
+        <v>0.009327220856079652</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01905154177682657</v>
+        <v>0.01881866988154323</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>948438</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>922326</v>
+        <v>924247</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>971552</v>
+        <v>972111</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8463839330239505</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8230821667359283</v>
+        <v>0.8247960107979205</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8670115557440967</v>
+        <v>0.8675096607299245</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>841</v>
@@ -1341,19 +1341,19 @@
         <v>855867</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>833811</v>
+        <v>834399</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>876111</v>
+        <v>877782</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8627266894361435</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8404938188550225</v>
+        <v>0.8410868761363943</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8831323462477132</v>
+        <v>0.8848170941264896</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1776</v>
@@ -1362,19 +1362,19 @@
         <v>1804305</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1773464</v>
+        <v>1772719</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1835363</v>
+        <v>1838070</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8540581834930924</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8394598235492005</v>
+        <v>0.8391072866249888</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8687595637702215</v>
+        <v>0.8700409395948656</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>153205</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>131205</v>
+        <v>131837</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178382</v>
+        <v>175917</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1367198255178138</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1170866746014212</v>
+        <v>0.1176511362542882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1591874210863793</v>
+        <v>0.1569882206701165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -1412,19 +1412,19 @@
         <v>120674</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101645</v>
+        <v>100706</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142384</v>
+        <v>140543</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1216406825271725</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1024592053027582</v>
+        <v>0.1015130439165177</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1435256604836547</v>
+        <v>0.1416689630302361</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>273</v>
@@ -1433,19 +1433,19 @@
         <v>273878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>245115</v>
+        <v>243177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>303876</v>
+        <v>305109</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1296389441015155</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1160239596188445</v>
+        <v>0.115106547721392</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1438382942396599</v>
+        <v>0.1444217000977949</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>18934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11534</v>
+        <v>11065</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30636</v>
+        <v>30642</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01689624145823573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01029275660379995</v>
+        <v>0.009874332193407602</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02733940476657257</v>
+        <v>0.02734490148726554</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1483,19 +1483,19 @@
         <v>15508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9866</v>
+        <v>8918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25274</v>
+        <v>24957</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01563262803668401</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009944620483934788</v>
+        <v>0.008989240472608956</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02547687276215175</v>
+        <v>0.02515729405161118</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -1504,19 +1504,19 @@
         <v>34442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23781</v>
+        <v>23741</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49481</v>
+        <v>48258</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01630287240539209</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01125662547984063</v>
+        <v>0.01123771952047089</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02342160710553141</v>
+        <v>0.02284258071759579</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>374531</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>359679</v>
+        <v>358793</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>388328</v>
+        <v>388631</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8484663975344511</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8148205100013156</v>
+        <v>0.8128130464938219</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8797227917679811</v>
+        <v>0.8804096542546399</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>269</v>
@@ -1629,19 +1629,19 @@
         <v>272144</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>256720</v>
+        <v>257089</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>284823</v>
+        <v>285533</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8095400156876502</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7636585777405733</v>
+        <v>0.7647580084060317</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8472565880108072</v>
+        <v>0.8493691966511164</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>633</v>
@@ -1650,19 +1650,19 @@
         <v>646674</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>624592</v>
+        <v>625298</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>666497</v>
+        <v>664771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8316376293207878</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8032391497416449</v>
+        <v>0.8041478883189604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8571307934306259</v>
+        <v>0.8549109044612644</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>61497</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>48986</v>
+        <v>47341</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76718</v>
+        <v>76755</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1393158913460287</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1109742400376512</v>
+        <v>0.1072471342581673</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1737983545732812</v>
+        <v>0.1738817148986207</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -1700,19 +1700,19 @@
         <v>52462</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39556</v>
+        <v>39979</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65187</v>
+        <v>65824</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1560575827617334</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1176673113653346</v>
+        <v>0.1189255553590768</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.193911076039766</v>
+        <v>0.1958036285448741</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -1721,19 +1721,19 @@
         <v>113959</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>95800</v>
+        <v>96553</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>134580</v>
+        <v>134623</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1465537087586102</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1232014983807408</v>
+        <v>0.1241697667060613</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1730729105218617</v>
+        <v>0.1731276939058708</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>5393</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1704</v>
+        <v>2053</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11914</v>
+        <v>12717</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01221771111952018</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003859515218092271</v>
+        <v>0.004651871095775953</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02699069622051049</v>
+        <v>0.02880918130319347</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>11565</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5780</v>
+        <v>5839</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19454</v>
+        <v>19955</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03440240155061636</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0171946128331471</v>
+        <v>0.01736916331890605</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05787018531028372</v>
+        <v>0.0593606249092457</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -1792,19 +1792,19 @@
         <v>16958</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10000</v>
+        <v>10738</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26764</v>
+        <v>28461</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02180866192060201</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01285986964236887</v>
+        <v>0.0138091403532718</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03441856571726261</v>
+        <v>0.03660156355399655</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2716036</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2674001</v>
+        <v>2672890</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2754658</v>
+        <v>2756509</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8426651794227216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8296235869696439</v>
+        <v>0.8292788222396835</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8546478242118041</v>
+        <v>0.8552219314950376</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2812</v>
@@ -1917,19 +1917,19 @@
         <v>2894925</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2857170</v>
+        <v>2859099</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2934761</v>
+        <v>2933523</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8754539683722333</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8640364314459555</v>
+        <v>0.8646199715138702</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8875006628358604</v>
+        <v>0.887126420638029</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5472</v>
@@ -1938,19 +1938,19 @@
         <v>5610962</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5558676</v>
+        <v>5550990</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5662938</v>
+        <v>5661418</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8592695156271487</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.851262355353513</v>
+        <v>0.8500853894223324</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8672291810434363</v>
+        <v>0.866996419864386</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>452885</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>415366</v>
+        <v>414847</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>492894</v>
+        <v>495410</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1405099782444623</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1288696488560049</v>
+        <v>0.1287084186049955</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1529231074072462</v>
+        <v>0.1537036031738141</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>361</v>
@@ -1988,19 +1988,19 @@
         <v>357602</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>322327</v>
+        <v>321996</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>394476</v>
+        <v>392172</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1081424118978715</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09747497115302485</v>
+        <v>0.09737473697859958</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1192933168362261</v>
+        <v>0.1185968177685527</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>810</v>
@@ -2009,19 +2009,19 @@
         <v>810487</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>759313</v>
+        <v>762774</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>860012</v>
+        <v>862960</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1241189503670543</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1162821448981922</v>
+        <v>0.1168121538120167</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1317032234943881</v>
+        <v>0.1321546709274003</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>54229</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39861</v>
+        <v>40441</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71953</v>
+        <v>71462</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01682484233281613</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01236710531839168</v>
+        <v>0.01254694518365922</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02232387609060798</v>
+        <v>0.02217142816534965</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -2059,19 +2059,19 @@
         <v>54243</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40730</v>
+        <v>41727</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70296</v>
+        <v>72182</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01640361972989524</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01231703586914209</v>
+        <v>0.01261880551049998</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02125820850229034</v>
+        <v>0.0218284060452124</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -2080,19 +2080,19 @@
         <v>108472</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89830</v>
+        <v>89836</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>130530</v>
+        <v>132635</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01661153400579704</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01375668091317719</v>
+        <v>0.01375757953992044</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01998947031766074</v>
+        <v>0.02031184268295564</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>903807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>880724</v>
+        <v>882084</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>922816</v>
+        <v>925055</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8729443957906144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8506489695379496</v>
+        <v>0.8519632951241159</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8913042164323263</v>
+        <v>0.8934665666201046</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>910</v>
@@ -2445,19 +2445,19 @@
         <v>992459</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>970463</v>
+        <v>971111</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1012628</v>
+        <v>1011648</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8962417534274796</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8763783960073328</v>
+        <v>0.8769637907250226</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.914455928763248</v>
+        <v>0.9135704694752886</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1749</v>
@@ -2466,19 +2466,19 @@
         <v>1896266</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1867819</v>
+        <v>1866678</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1923946</v>
+        <v>1926515</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8849844981997272</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8717085384803376</v>
+        <v>0.8711756611320275</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.897902520464731</v>
+        <v>0.8991015225271368</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>117522</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>99537</v>
+        <v>96348</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>139859</v>
+        <v>137268</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1135088867889655</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0961377246945692</v>
+        <v>0.09305769757312218</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1350831133827485</v>
+        <v>0.1325807511560767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -2516,19 +2516,19 @@
         <v>105541</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85976</v>
+        <v>87406</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>126026</v>
+        <v>126637</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09530864070623531</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07764084633650213</v>
+        <v>0.07893214760024006</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1138084531694172</v>
+        <v>0.1143598106949097</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>218</v>
@@ -2537,19 +2537,19 @@
         <v>223063</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>196648</v>
+        <v>193826</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>249713</v>
+        <v>250662</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1041029777531538</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09177550541519824</v>
+        <v>0.09045841378574804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1165408835465177</v>
+        <v>0.1169834045860526</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>14026</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7863</v>
+        <v>7985</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24033</v>
+        <v>24597</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01354671742042008</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00759409850923737</v>
+        <v>0.007712679769885665</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02321269777803119</v>
+        <v>0.02375739796226554</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -2587,19 +2587,19 @@
         <v>9357</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4577</v>
+        <v>4102</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17938</v>
+        <v>16248</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008449605866285124</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004133623461595136</v>
+        <v>0.003704099674391245</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01619863614781833</v>
+        <v>0.01467312277886957</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -2608,19 +2608,19 @@
         <v>23382</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14590</v>
+        <v>15424</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35139</v>
+        <v>35274</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01091252404711893</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006809105577694833</v>
+        <v>0.00719852505673372</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01639935257965807</v>
+        <v>0.01646226878287478</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>766325</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>738941</v>
+        <v>738956</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>791438</v>
+        <v>790739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7873815325871917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7592442116951366</v>
+        <v>0.7592606164366323</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8131840422341287</v>
+        <v>0.8124662103701826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>857</v>
@@ -2733,19 +2733,19 @@
         <v>921663</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>896279</v>
+        <v>895380</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>945034</v>
+        <v>942453</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8520511119832385</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8285840909363117</v>
+        <v>0.8277538171915809</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8736571492964845</v>
+        <v>0.8712710143218327</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1575</v>
@@ -2754,19 +2754,19 @@
         <v>1687988</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1650504</v>
+        <v>1652517</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1719683</v>
+        <v>1725951</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8214226350392807</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8031819939640495</v>
+        <v>0.8041613085150191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8368460657297192</v>
+        <v>0.8398963926881009</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>198200</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>173289</v>
+        <v>173818</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>224141</v>
+        <v>225891</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2036455293506327</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1780502802363894</v>
+        <v>0.1785942392550839</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2302997394243109</v>
+        <v>0.2320975576256863</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>127</v>
@@ -2804,19 +2804,19 @@
         <v>133779</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>113545</v>
+        <v>113495</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>156536</v>
+        <v>156818</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1236747373547061</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1049692008708742</v>
+        <v>0.1049228200686604</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1447132548335295</v>
+        <v>0.1449741768958124</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>320</v>
@@ -2825,19 +2825,19 @@
         <v>331979</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>300193</v>
+        <v>294302</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>367340</v>
+        <v>365062</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1615500967077778</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1460821537939802</v>
+        <v>0.1432158613322248</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1787578077065018</v>
+        <v>0.1776492291351512</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>8733</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4040</v>
+        <v>3981</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17238</v>
+        <v>15739</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008972938062175638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004150658117415327</v>
+        <v>0.004090543819034153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01771175066611791</v>
+        <v>0.0161714532469392</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -2875,19 +2875,19 @@
         <v>26257</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16889</v>
+        <v>16657</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38014</v>
+        <v>36584</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02427415066205546</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01561316907563742</v>
+        <v>0.01539904096511733</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03514298525803084</v>
+        <v>0.03382046657749926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -2896,19 +2896,19 @@
         <v>34990</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24728</v>
+        <v>24629</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48233</v>
+        <v>49955</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01702726825294143</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01203353306689012</v>
+        <v>0.01198493358065078</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02347163317837457</v>
+        <v>0.02430935472075773</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>714755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>690491</v>
+        <v>689483</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>736184</v>
+        <v>737859</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8160779578783148</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7883741481989881</v>
+        <v>0.7872231865408287</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8405440707760686</v>
+        <v>0.8424563613180828</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>688</v>
@@ -3021,19 +3021,19 @@
         <v>735210</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>711644</v>
+        <v>714120</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>755407</v>
+        <v>756836</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8456836526073835</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8185763566818908</v>
+        <v>0.8214246062364946</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8689152289009655</v>
+        <v>0.8705593735661432</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1351</v>
@@ -3042,19 +3042,19 @@
         <v>1449966</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1419537</v>
+        <v>1415162</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1482598</v>
+        <v>1476930</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8308258917346275</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.813390498025257</v>
+        <v>0.8108834920428126</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8495241201148859</v>
+        <v>0.8462766151216446</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>153589</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133465</v>
+        <v>131622</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178021</v>
+        <v>178511</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1753611326314307</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1523842921426428</v>
+        <v>0.1502808059722178</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2032568991130722</v>
+        <v>0.2038161226005187</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>115</v>
@@ -3092,19 +3092,19 @@
         <v>121829</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103080</v>
+        <v>101401</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144238</v>
+        <v>142609</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1401350251676693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1185693325074977</v>
+        <v>0.1166379909029732</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.165910779102787</v>
+        <v>0.164037597749672</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>266</v>
@@ -3113,19 +3113,19 @@
         <v>275418</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>244025</v>
+        <v>248262</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>306858</v>
+        <v>308145</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1578134173136468</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.139825625909717</v>
+        <v>0.1422532552836883</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1758285261039469</v>
+        <v>0.176566086606567</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>7498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3216</v>
+        <v>3073</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16297</v>
+        <v>14360</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008560909490254415</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003671704452325894</v>
+        <v>0.003508210939411604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01860690363375517</v>
+        <v>0.01639578720169814</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -3163,19 +3163,19 @@
         <v>12329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6623</v>
+        <v>6292</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21297</v>
+        <v>20796</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01418132222494712</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007617860382747765</v>
+        <v>0.007237722794199542</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02449715491477716</v>
+        <v>0.02392028734228945</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -3184,19 +3184,19 @@
         <v>19827</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12527</v>
+        <v>12349</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30791</v>
+        <v>30150</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01136069095172572</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007178082717923411</v>
+        <v>0.007076005431444322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01764319137900996</v>
+        <v>0.01727584670710311</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>401506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>382079</v>
+        <v>382136</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>417819</v>
+        <v>419192</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8079269510467687</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7688356977343999</v>
+        <v>0.7689504304242109</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8407524526178631</v>
+        <v>0.8435160653749558</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>349</v>
@@ -3309,19 +3309,19 @@
         <v>384922</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>368387</v>
+        <v>366814</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>399893</v>
+        <v>398153</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8564924658285303</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8197005866732209</v>
+        <v>0.816200233953851</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8898032365924059</v>
+        <v>0.8859319344990051</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>715</v>
@@ -3330,19 +3330,19 @@
         <v>786428</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>761450</v>
+        <v>761720</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>809321</v>
+        <v>808043</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8309898798070111</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8045966518234319</v>
+        <v>0.8048821742455278</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8551800531241155</v>
+        <v>0.8538297699030218</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>81697</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66004</v>
+        <v>65455</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>99020</v>
+        <v>100209</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1643938299420026</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.132817037344814</v>
+        <v>0.1317112369115502</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1992531126544822</v>
+        <v>0.2016453316924956</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -3380,19 +3380,19 @@
         <v>56177</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42545</v>
+        <v>44145</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>72594</v>
+        <v>72068</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.12500066865818</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09466694662210962</v>
+        <v>0.09822650907608231</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1615299868211189</v>
+        <v>0.1603597281128652</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>128</v>
@@ -3401,19 +3401,19 @@
         <v>137874</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>114319</v>
+        <v>116680</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>160178</v>
+        <v>158491</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1456866943044591</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.120796240557302</v>
+        <v>0.1232912156665018</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.169253903506389</v>
+        <v>0.1674719380138127</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>13755</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7342</v>
+        <v>7734</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23162</v>
+        <v>22974</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0276792190112287</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01477388521959854</v>
+        <v>0.01556348157006295</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04660765741647663</v>
+        <v>0.04622906911154488</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -3451,19 +3451,19 @@
         <v>8317</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4114</v>
+        <v>4082</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15583</v>
+        <v>15396</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01850686551328967</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00915392443794423</v>
+        <v>0.009081951225791828</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03467437334448581</v>
+        <v>0.03425740210481087</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -3472,19 +3472,19 @@
         <v>22073</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14136</v>
+        <v>13796</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>33025</v>
+        <v>33744</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02332342588852981</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0149365197951032</v>
+        <v>0.01457802470236892</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03489603740715334</v>
+        <v>0.03565591609077421</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2786395</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2739682</v>
+        <v>2746665</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2831339</v>
+        <v>2830622</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8240323930317406</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8102178859956594</v>
+        <v>0.8122830564832324</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8373238578874245</v>
+        <v>0.8371119313059442</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2804</v>
@@ -3597,19 +3597,19 @@
         <v>3034254</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2995593</v>
+        <v>2987727</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3074337</v>
+        <v>3073939</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.864992157151269</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8539706955231908</v>
+        <v>0.8517285072682398</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8764187830337209</v>
+        <v>0.8763054746180543</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5390</v>
@@ -3618,19 +3618,19 @@
         <v>5820649</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5761132</v>
+        <v>5756211</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5883631</v>
+        <v>5881584</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8448881053238066</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8362489617127158</v>
+        <v>0.8355348044640408</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8540301636732187</v>
+        <v>0.8537331444184699</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>551007</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>509212</v>
+        <v>509114</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>597485</v>
+        <v>593029</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1629517300681636</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1505914436542482</v>
+        <v>0.1505623334308497</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1766967090738156</v>
+        <v>0.1753789296433956</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>394</v>
@@ -3668,19 +3668,19 @@
         <v>417326</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>378730</v>
+        <v>379366</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>455309</v>
+        <v>458853</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1189694447436285</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1079665852128798</v>
+        <v>0.108148000001088</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1297976137005755</v>
+        <v>0.1308078473321923</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>932</v>
@@ -3689,19 +3689,19 @@
         <v>968333</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>908716</v>
+        <v>907039</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1022895</v>
+        <v>1025698</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1405570237412604</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1319034309040907</v>
+        <v>0.1316600243814331</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.148476919174083</v>
+        <v>0.1488838254066011</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>44012</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32045</v>
+        <v>32669</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58381</v>
+        <v>58991</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01301587690009577</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00947691889210347</v>
+        <v>0.009661249916424305</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01726525294691848</v>
+        <v>0.01744551300313646</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -3739,19 +3739,19 @@
         <v>56260</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42172</v>
+        <v>41907</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69997</v>
+        <v>71476</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01603839810510258</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01202222834653251</v>
+        <v>0.01194653915647426</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01995454912318147</v>
+        <v>0.02037598237223059</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>95</v>
@@ -3760,19 +3760,19 @@
         <v>100272</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81150</v>
+        <v>82315</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>121919</v>
+        <v>122826</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01455487093493292</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0117791947331268</v>
+        <v>0.01194836631751235</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01769703816758648</v>
+        <v>0.01782862427961111</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>977318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>953275</v>
+        <v>955039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>999269</v>
+        <v>998679</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8735923924828275</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8521009386157276</v>
+        <v>0.853677823871045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.893212968860324</v>
+        <v>0.8926860632398252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1050</v>
@@ -4125,19 +4125,19 @@
         <v>1116114</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1091550</v>
+        <v>1092487</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1136805</v>
+        <v>1136105</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8949324535597688</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8752359180510975</v>
+        <v>0.8759873437422377</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9115230516232727</v>
+        <v>0.910962076471341</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1978</v>
@@ -4146,19 +4146,19 @@
         <v>2093433</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2061949</v>
+        <v>2063422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2124472</v>
+        <v>2123779</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8848415660508012</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8715342440648949</v>
+        <v>0.8721567696966798</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8979612480881554</v>
+        <v>0.8976682781730331</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>128502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107023</v>
+        <v>108796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150988</v>
+        <v>151750</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.114863725453555</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09566420960523478</v>
+        <v>0.09724873161205377</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1349632812570512</v>
+        <v>0.1356442035740398</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>113</v>
@@ -4196,19 +4196,19 @@
         <v>114814</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>96608</v>
+        <v>95011</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>137909</v>
+        <v>135214</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09206155871683946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07746340265526921</v>
+        <v>0.07618288460909807</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1105793801520742</v>
+        <v>0.1084185884882183</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>232</v>
@@ -4217,19 +4217,19 @@
         <v>243317</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>214682</v>
+        <v>216007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>272729</v>
+        <v>273744</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1028438193050973</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09074051493613106</v>
+        <v>0.09130095401597579</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1152757072025027</v>
+        <v>0.1157045369628577</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>12915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6168</v>
+        <v>6742</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22127</v>
+        <v>23589</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0115438820636175</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005513283909849872</v>
+        <v>0.006026102246703458</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01977901455546722</v>
+        <v>0.02108526910126169</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -4267,19 +4267,19 @@
         <v>16220</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9273</v>
+        <v>9216</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26141</v>
+        <v>26271</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01300598772339175</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007435336713233215</v>
+        <v>0.00738995701664261</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02096078367993134</v>
+        <v>0.02106472831914896</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -4288,19 +4288,19 @@
         <v>29135</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19059</v>
+        <v>19182</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42163</v>
+        <v>42263</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01231461464410151</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008055929836030208</v>
+        <v>0.008107705544276353</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01782129114842991</v>
+        <v>0.01786337785385896</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>779691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>759688</v>
+        <v>757138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>799906</v>
+        <v>797924</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8608868488856936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8388015101551382</v>
+        <v>0.8359855833520152</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8832072313578198</v>
+        <v>0.8810194544894868</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>794</v>
@@ -4413,19 +4413,19 @@
         <v>843836</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>820137</v>
+        <v>818820</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>867267</v>
+        <v>866558</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8413558182873112</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8177264563739718</v>
+        <v>0.8164133364041545</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8647181682107848</v>
+        <v>0.8640106675635241</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1550</v>
@@ -4434,19 +4434,19 @@
         <v>1623527</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1589697</v>
+        <v>1590877</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1652671</v>
+        <v>1653930</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8506236788259908</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8328992500491109</v>
+        <v>0.833517212370595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8658936186995128</v>
+        <v>0.8665528036662106</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>120176</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>99456</v>
+        <v>101717</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>140249</v>
+        <v>143226</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1326907280308386</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1098136691889271</v>
+        <v>0.1123096278098167</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1548540757099667</v>
+        <v>0.1581414431192238</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>145</v>
@@ -4484,19 +4484,19 @@
         <v>149714</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>126396</v>
+        <v>128071</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>171297</v>
+        <v>174069</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1492735065471144</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1260249756126926</v>
+        <v>0.1276942477957385</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1707935435163254</v>
+        <v>0.1735576867616911</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>261</v>
@@ -4505,19 +4505,19 @@
         <v>269889</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>242555</v>
+        <v>240503</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>304073</v>
+        <v>301464</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1414046499674015</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1270831990016972</v>
+        <v>0.1260083669283658</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.15931459897134</v>
+        <v>0.1579477510487937</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>5817</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2263</v>
+        <v>2744</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12238</v>
+        <v>12183</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006422423083467879</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002498386023323561</v>
+        <v>0.003029588000474996</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01351269762213403</v>
+        <v>0.01345204959140422</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -4555,19 +4555,19 @@
         <v>9398</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4316</v>
+        <v>4774</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16805</v>
+        <v>17879</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0093706751655744</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004303487907427998</v>
+        <v>0.004759668086174126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01675531391817867</v>
+        <v>0.01782692130938195</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -4576,19 +4576,19 @@
         <v>15215</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9162</v>
+        <v>8921</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24805</v>
+        <v>24959</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0079716712066078</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00480029798003153</v>
+        <v>0.004674208834295599</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01299636167430866</v>
+        <v>0.01307688498392121</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>700691</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>678502</v>
+        <v>680178</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>720692</v>
+        <v>720316</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8582337214913451</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8310555166522775</v>
+        <v>0.8331085604164489</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8827312090910453</v>
+        <v>0.8822707825292539</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>611</v>
@@ -4701,19 +4701,19 @@
         <v>649363</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>627104</v>
+        <v>629786</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>668017</v>
+        <v>671867</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8477752865930921</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8187148668203702</v>
+        <v>0.8222162272958635</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8721290955296044</v>
+        <v>0.8771551038228254</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1283</v>
@@ -4722,19 +4722,19 @@
         <v>1350054</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1319635</v>
+        <v>1320773</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1377190</v>
+        <v>1378388</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8531712981314423</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8339482207805142</v>
+        <v>0.8346669384042559</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8703199231442049</v>
+        <v>0.8710772700255615</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>109974</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90691</v>
+        <v>90599</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>131031</v>
+        <v>130492</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1347001434333092</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1110819627847627</v>
+        <v>0.1109687094229148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.160492361605335</v>
+        <v>0.1598312782476177</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -4772,19 +4772,19 @@
         <v>109433</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>90504</v>
+        <v>88362</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130453</v>
+        <v>128544</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1428698232080437</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1181579277881865</v>
+        <v>0.1153610833267862</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.17031285070935</v>
+        <v>0.1678201325450404</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>208</v>
@@ -4793,19 +4793,19 @@
         <v>219406</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>192706</v>
+        <v>192512</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>249064</v>
+        <v>249397</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1386546909480095</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1217814425083925</v>
+        <v>0.1216586384363263</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1573968088754741</v>
+        <v>0.1576070146434048</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>5769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1868</v>
+        <v>1884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14061</v>
+        <v>13755</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007066135075345626</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002288346670729449</v>
+        <v>0.002307433703732706</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01722293398815244</v>
+        <v>0.0168482298211606</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -4843,19 +4843,19 @@
         <v>7165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2850</v>
+        <v>2924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14196</v>
+        <v>14354</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009354890198864181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00372102437048628</v>
+        <v>0.003817511830977333</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01853370721332027</v>
+        <v>0.01874006956716692</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -4864,19 +4864,19 @@
         <v>12935</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6722</v>
+        <v>6784</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22882</v>
+        <v>22151</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008174010920548133</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004247917222808903</v>
+        <v>0.004287215594391338</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01446058422251727</v>
+        <v>0.01399822220023951</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>428372</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>409427</v>
+        <v>411239</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>442395</v>
+        <v>443342</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8595381235516298</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8215238038955216</v>
+        <v>0.8251606791360665</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.887675148527331</v>
+        <v>0.8895756346329579</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>384</v>
@@ -4989,19 +4989,19 @@
         <v>416688</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>398274</v>
+        <v>400336</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>432277</v>
+        <v>430891</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8602137954861118</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8221992962451994</v>
+        <v>0.8264559917185111</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8923959442462235</v>
+        <v>0.8895334708693432</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>784</v>
@@ -5010,19 +5010,19 @@
         <v>845060</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>822387</v>
+        <v>821011</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>865638</v>
+        <v>866434</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8598711557807849</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8368010786195512</v>
+        <v>0.8354005517203238</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8808099340217557</v>
+        <v>0.8816194776668067</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>63700</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50461</v>
+        <v>49246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82144</v>
+        <v>81249</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1278144689373949</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1012509093703165</v>
+        <v>0.09881339281485715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1648240531435206</v>
+        <v>0.1630279431859032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -5060,19 +5060,19 @@
         <v>60974</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>46879</v>
+        <v>46839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79815</v>
+        <v>76081</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1258744339044352</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09677656242224636</v>
+        <v>0.09669543965985374</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1647701798442671</v>
+        <v>0.1570611890242264</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>116</v>
@@ -5081,19 +5081,19 @@
         <v>124673</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>105202</v>
+        <v>103446</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>145166</v>
+        <v>148992</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1268582442391457</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1070455310444885</v>
+        <v>0.1052589343042091</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1477105922836195</v>
+        <v>0.151603310265672</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>6303</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2719</v>
+        <v>2797</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13277</v>
+        <v>13741</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01264740751097521</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005455636401578519</v>
+        <v>0.005611572085076589</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02664124884023846</v>
+        <v>0.02757113604056156</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -5131,19 +5131,19 @@
         <v>6739</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2865</v>
+        <v>2876</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13748</v>
+        <v>12992</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01391177060945307</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00591463503797633</v>
+        <v>0.005936798987400158</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02838122280037867</v>
+        <v>0.02682091303991525</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -5152,19 +5152,19 @@
         <v>13042</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7671</v>
+        <v>6949</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22668</v>
+        <v>21670</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01327059998006944</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007805905413339364</v>
+        <v>0.00707064496940485</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02306537289130531</v>
+        <v>0.02204947553507041</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2886072</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2841205</v>
+        <v>2841101</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2923854</v>
+        <v>2925162</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8642935833135238</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8508569561288902</v>
+        <v>0.8508260282136854</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.87560808926289</v>
+        <v>0.8759996090697476</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2839</v>
@@ -5277,19 +5277,19 @@
         <v>3026001</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2984149</v>
+        <v>2984236</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3064729</v>
+        <v>3063462</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8644584852127731</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8525022740099523</v>
+        <v>0.8525269478804721</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8755220497082448</v>
+        <v>0.875160057085919</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5595</v>
@@ -5298,19 +5298,19 @@
         <v>5912073</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5853270</v>
+        <v>5855904</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5967962</v>
+        <v>5974306</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8643779778782653</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8557806132015163</v>
+        <v>0.8561657490278562</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.872549216228916</v>
+        <v>0.873476767972629</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>422351</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>384862</v>
+        <v>387740</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>464164</v>
+        <v>469920</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1264817049156756</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1152549339739023</v>
+        <v>0.1161166307475449</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1390034301735974</v>
+        <v>0.1407272243156245</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>422</v>
@@ -5348,19 +5348,19 @@
         <v>434934</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>397055</v>
+        <v>395016</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>474365</v>
+        <v>473624</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.124250692617417</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1134295084747704</v>
+        <v>0.1128468527095348</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.13551515463</v>
+        <v>0.1353032955273731</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>817</v>
@@ -5369,19 +5369,19 @@
         <v>857285</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>803947</v>
+        <v>798612</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>911162</v>
+        <v>914656</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1253399029552276</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1175414922731047</v>
+        <v>0.1167615893985648</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1332169554299064</v>
+        <v>0.1337278589287853</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>30803</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21226</v>
+        <v>20808</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44079</v>
+        <v>43917</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009224711770800507</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006356684763559477</v>
+        <v>0.006231377053791507</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01320036670458614</v>
+        <v>0.01315188807888577</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -5419,19 +5419,19 @@
         <v>39523</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28234</v>
+        <v>27987</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51930</v>
+        <v>52479</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01129082216980985</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00806594036228022</v>
+        <v>0.007995153699123011</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01483519986911753</v>
+        <v>0.01499210364316792</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -5440,19 +5440,19 @@
         <v>70326</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53526</v>
+        <v>52592</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>89375</v>
+        <v>89371</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01028211916650704</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007825747060176146</v>
+        <v>0.007689177982271604</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01306719530091914</v>
+        <v>0.01306648404446225</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>381409</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>357975</v>
+        <v>359674</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>399826</v>
+        <v>401705</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7668312116440481</v>
+        <v>0.7668312116440482</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7197161212340797</v>
+        <v>0.7231320446497299</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8038584436234694</v>
+        <v>0.8076378072124084</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>758</v>
@@ -5805,19 +5805,19 @@
         <v>548228</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>533372</v>
+        <v>531684</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>560909</v>
+        <v>560647</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8813083812977442</v>
+        <v>0.8813083812977439</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8574258860171134</v>
+        <v>0.8547114948808521</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9016926388079657</v>
+        <v>0.9012724303307461</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1115</v>
@@ -5826,19 +5826,19 @@
         <v>929637</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>902318</v>
+        <v>904880</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>953448</v>
+        <v>955430</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8304447663091737</v>
+        <v>0.8304447663091739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8060409121853218</v>
+        <v>0.8083293707867411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8517145685369469</v>
+        <v>0.8534857444450182</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>102387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>84316</v>
+        <v>84284</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122527</v>
+        <v>124268</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2058520411306525</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1695202488710072</v>
+        <v>0.1694546516614777</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2463438980246549</v>
+        <v>0.2498436811459424</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -5876,19 +5876,19 @@
         <v>60898</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49153</v>
+        <v>49836</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>76228</v>
+        <v>75303</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09789707407565088</v>
+        <v>0.09789707407565085</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07901643130248193</v>
+        <v>0.080114637049735</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1225412772251581</v>
+        <v>0.1210537566510248</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>169</v>
@@ -5897,19 +5897,19 @@
         <v>163285</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>141120</v>
+        <v>139650</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>190506</v>
+        <v>190051</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1458627942013329</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.126062229345568</v>
+        <v>0.1247496386048225</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1701786210264826</v>
+        <v>0.16977213511847</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>13587</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7675</v>
+        <v>7240</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23853</v>
+        <v>22611</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02731674722529934</v>
+        <v>0.02731674722529933</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01543079904517078</v>
+        <v>0.01455530077178504</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04795708081124219</v>
+        <v>0.04545994583799989</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -5947,19 +5947,19 @@
         <v>12935</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7591</v>
+        <v>7867</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19595</v>
+        <v>21384</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02079454462660496</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01220363453953951</v>
+        <v>0.01264638044530571</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03150005806373406</v>
+        <v>0.03437531222378085</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -5968,19 +5968,19 @@
         <v>26522</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17858</v>
+        <v>17690</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37687</v>
+        <v>37779</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02369243948949331</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01595232154976225</v>
+        <v>0.01580218943914823</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0336658699204917</v>
+        <v>0.03374783558198769</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>771647</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>739580</v>
+        <v>740902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>798253</v>
+        <v>798625</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8072901117482754</v>
+        <v>0.8072901117482753</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7737426613042354</v>
+        <v>0.7751253941227558</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.835125265378228</v>
+        <v>0.8355143158622147</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1394</v>
@@ -6093,19 +6093,19 @@
         <v>950685</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>927242</v>
+        <v>927821</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>971492</v>
+        <v>972628</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8529349888932806</v>
+        <v>0.8529349888932805</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8319026497575933</v>
+        <v>0.8324216789370814</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8716028829312287</v>
+        <v>0.8726222865918032</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2148</v>
@@ -6114,19 +6114,19 @@
         <v>1722331</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1686959</v>
+        <v>1684398</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1758888</v>
+        <v>1757503</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8318625123658833</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8147780239592248</v>
+        <v>0.813541223752522</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8495186917080404</v>
+        <v>0.8488500849320422</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>174262</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>149814</v>
+        <v>147919</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>206238</v>
+        <v>203349</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.182311628625041</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1567343876922766</v>
+        <v>0.1547518920812355</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2157640942114746</v>
+        <v>0.2127423234320559</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>199</v>
@@ -6164,19 +6164,19 @@
         <v>153097</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>133293</v>
+        <v>131598</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>175863</v>
+        <v>175691</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1373554834044028</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1195875199634185</v>
+        <v>0.1180673607007568</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1577806439081124</v>
+        <v>0.1576267064448254</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>343</v>
@@ -6185,19 +6185,19 @@
         <v>327359</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>290972</v>
+        <v>294239</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>361170</v>
+        <v>366027</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1581099990078658</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1405356804279033</v>
+        <v>0.1421133043426638</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1744403943166505</v>
+        <v>0.1767858806217144</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>9939</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4458</v>
+        <v>4863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18971</v>
+        <v>18484</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01039825962668374</v>
+        <v>0.01039825962668373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004664375278525234</v>
+        <v>0.005087299992095494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01984760086808456</v>
+        <v>0.01933738949363283</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -6235,19 +6235,19 @@
         <v>10822</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5460</v>
+        <v>5564</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20563</v>
+        <v>19852</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009709527702316582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004898874918392915</v>
+        <v>0.004992175286977649</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01844876719060191</v>
+        <v>0.01781113748166652</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -6256,19 +6256,19 @@
         <v>20761</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12315</v>
+        <v>12967</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32442</v>
+        <v>32232</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01002748862625094</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00594819061366939</v>
+        <v>0.006263059226005078</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01566900879490261</v>
+        <v>0.01556774165099609</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>887426</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>858728</v>
+        <v>859672</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>910787</v>
+        <v>912856</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8495119247506971</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8220399738628535</v>
+        <v>0.8229444381965987</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8718749041324031</v>
+        <v>0.8738562266747002</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1330</v>
@@ -6381,19 +6381,19 @@
         <v>896516</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>873986</v>
+        <v>874484</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>916837</v>
+        <v>917421</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8557469396911883</v>
+        <v>0.8557469396911884</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.834241123098927</v>
+        <v>0.8347162458223333</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8751431337424376</v>
+        <v>0.8757007065197711</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2217</v>
@@ -6402,19 +6402,19 @@
         <v>1783941</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1744949</v>
+        <v>1751912</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1816713</v>
+        <v>1814965</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8526339200709634</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8339974295240776</v>
+        <v>0.8373255102966196</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8682971293528132</v>
+        <v>0.8674615835167888</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>143767</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121387</v>
+        <v>118013</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>170904</v>
+        <v>169493</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1376243781376414</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1162010088563426</v>
+        <v>0.1129710597460439</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1636028552007395</v>
+        <v>0.1622513720808953</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -6452,19 +6452,19 @@
         <v>137827</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118758</v>
+        <v>117770</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>160718</v>
+        <v>158974</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1315595207609571</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1133572153793876</v>
+        <v>0.1124144225326198</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1534094379203043</v>
+        <v>0.151744226471428</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>297</v>
@@ -6473,19 +6473,19 @@
         <v>281594</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>249446</v>
+        <v>249969</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>318707</v>
+        <v>311378</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1345875840755891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1192224876317066</v>
+        <v>0.1194727658606633</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1523260840658569</v>
+        <v>0.1488228866879756</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>13438</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6093</v>
+        <v>6926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26120</v>
+        <v>25831</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01286369711166163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005832309179898817</v>
+        <v>0.006630415354115039</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02500431978740626</v>
+        <v>0.02472700830479773</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -6523,19 +6523,19 @@
         <v>13298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7977</v>
+        <v>7504</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21025</v>
+        <v>21096</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0126935395478545</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007614384234318976</v>
+        <v>0.007162613420864064</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02006840131688151</v>
+        <v>0.02013656027709899</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -6544,19 +6544,19 @@
         <v>26736</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17689</v>
+        <v>17624</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39823</v>
+        <v>40157</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0127784958534475</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008454257113356536</v>
+        <v>0.008423324970451701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01903322748672782</v>
+        <v>0.01919312528428701</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>845052</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>817288</v>
+        <v>818168</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>866066</v>
+        <v>868919</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.865895335922416</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8374458892862612</v>
+        <v>0.8383480436463059</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8874270096480223</v>
+        <v>0.8903510794304536</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1197</v>
@@ -6669,19 +6669,19 @@
         <v>803541</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>784326</v>
+        <v>783404</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>822413</v>
+        <v>821180</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8861155016541343</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8649262857120282</v>
+        <v>0.8639095479539738</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9069269006377421</v>
+        <v>0.9055667783210708</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2038</v>
@@ -6690,19 +6690,19 @@
         <v>1648593</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1615468</v>
+        <v>1617981</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1679638</v>
+        <v>1679978</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8756342733304943</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8580399213145179</v>
+        <v>0.8593749175451206</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8921232515562315</v>
+        <v>0.892304036065553</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>108788</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87966</v>
+        <v>87686</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>134925</v>
+        <v>134454</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1114716610795894</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09013613833265736</v>
+        <v>0.08984846613740452</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1382526828916776</v>
+        <v>0.1377703382264575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -6740,19 +6740,19 @@
         <v>82901</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>67202</v>
+        <v>67687</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>103521</v>
+        <v>101356</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09142049578761101</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07410776819149169</v>
+        <v>0.07464258327157799</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1141588955692193</v>
+        <v>0.1117721015636515</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>187</v>
@@ -6761,19 +6761,19 @@
         <v>191690</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>165371</v>
+        <v>162394</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>222477</v>
+        <v>219878</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1018141218522384</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08783503998988451</v>
+        <v>0.0862540614642047</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.118166490910531</v>
+        <v>0.1167861009664671</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>22088</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12827</v>
+        <v>13579</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34230</v>
+        <v>37150</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02263300299799466</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01314316422597671</v>
+        <v>0.013913729503102</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0350741176124159</v>
+        <v>0.03806604395195646</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -6811,19 +6811,19 @@
         <v>20371</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12839</v>
+        <v>12752</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30882</v>
+        <v>31226</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.02246400255825476</v>
+        <v>0.02246400255825477</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01415789028555304</v>
+        <v>0.01406298196252358</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03405513741121419</v>
+        <v>0.03443442026269779</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>41</v>
@@ -6832,19 +6832,19 @@
         <v>42459</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>29505</v>
+        <v>30213</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>58396</v>
+        <v>60324</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02255160481726745</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01567104573704514</v>
+        <v>0.01604728416613552</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03101645965968816</v>
+        <v>0.03204073149568221</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>2885533</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2831172</v>
+        <v>2834549</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2935617</v>
+        <v>2934565</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8306585790479634</v>
+        <v>0.8306585790479633</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8150098226133743</v>
+        <v>0.8159818030161138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8450763720784973</v>
+        <v>0.8447736080081102</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4679</v>
@@ -6957,19 +6957,19 @@
         <v>3198970</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3156658</v>
+        <v>3157790</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3236397</v>
+        <v>3234224</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8666664386319344</v>
+        <v>0.8666664386319345</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8552032670688394</v>
+        <v>0.8555099228253066</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8768061029990971</v>
+        <v>0.8762174294574133</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7518</v>
@@ -6978,19 +6978,19 @@
         <v>6084503</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6016062</v>
+        <v>6019068</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6149932</v>
+        <v>6149221</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8492086161069599</v>
+        <v>0.8492086161069603</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8396563065713646</v>
+        <v>0.8400758973165863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8583404078062793</v>
+        <v>0.858241271770919</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>529204</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>480719</v>
+        <v>480291</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>580832</v>
+        <v>580731</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1523421046662864</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1383847457422417</v>
+        <v>0.1382613468962899</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1672041270389767</v>
+        <v>0.1671751197184261</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>550</v>
@@ -7028,19 +7028,19 @@
         <v>434723</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>398730</v>
+        <v>400089</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>472502</v>
+        <v>472945</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1177754946168943</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1080242209435942</v>
+        <v>0.1083922350070491</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.128010420242982</v>
+        <v>0.1281305016181649</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>996</v>
@@ -7049,19 +7049,19 @@
         <v>963928</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>901193</v>
+        <v>899654</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1030719</v>
+        <v>1023965</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1345345508480764</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1257786823308757</v>
+        <v>0.1255639462562028</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1438565240589768</v>
+        <v>0.1429139330972066</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>59052</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43898</v>
+        <v>43541</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77856</v>
+        <v>78598</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01699931628575033</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01263679323710418</v>
+        <v>0.01253422009748479</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02241241324940763</v>
+        <v>0.02262597562791319</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -7099,19 +7099,19 @@
         <v>57427</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43827</v>
+        <v>44220</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71288</v>
+        <v>72322</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0155580667511713</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01187360268641688</v>
+        <v>0.01198020671461317</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01931342023297391</v>
+        <v>0.01959350121662264</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>119</v>
@@ -7120,19 +7120,19 @@
         <v>116479</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>95342</v>
+        <v>96547</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>142019</v>
+        <v>142068</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01625683304496353</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01330674328023778</v>
+        <v>0.01347504411344353</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01982153152045063</v>
+        <v>0.01982828927721514</v>
       </c>
     </row>
     <row r="23">
